--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H2">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I2">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J2">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N2">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O2">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P2">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q2">
-        <v>10.04430295805039</v>
+        <v>7.140165422620001</v>
       </c>
       <c r="R2">
-        <v>10.04430295805039</v>
+        <v>64.26148880357999</v>
       </c>
       <c r="S2">
-        <v>0.03268137434579298</v>
+        <v>0.01081027806057976</v>
       </c>
       <c r="T2">
-        <v>0.03268137434579298</v>
+        <v>0.01338403585072601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H3">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I3">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J3">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N3">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P3">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q3">
-        <v>11.54632979989396</v>
+        <v>8.809788858996001</v>
       </c>
       <c r="R3">
-        <v>11.54632979989396</v>
+        <v>79.28809973096401</v>
       </c>
       <c r="S3">
-        <v>0.03756855284894389</v>
+        <v>0.01333810375303582</v>
       </c>
       <c r="T3">
-        <v>0.03756855284894389</v>
+        <v>0.01651369722507958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H4">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I4">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J4">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N4">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O4">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P4">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q4">
-        <v>4.908649907805705</v>
+        <v>4.758028740936001</v>
       </c>
       <c r="R4">
-        <v>4.908649907805705</v>
+        <v>42.822258668424</v>
       </c>
       <c r="S4">
-        <v>0.01597138455893194</v>
+        <v>0.007203700567888898</v>
       </c>
       <c r="T4">
-        <v>0.01597138455893194</v>
+        <v>0.008918788778440509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H5">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I5">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J5">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N5">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O5">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P5">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q5">
-        <v>7.079083936980194</v>
+        <v>5.234977652272001</v>
       </c>
       <c r="R5">
-        <v>7.079083936980194</v>
+        <v>47.114798870448</v>
       </c>
       <c r="S5">
-        <v>0.02303337455431011</v>
+        <v>0.00792580573591469</v>
       </c>
       <c r="T5">
-        <v>0.02303337455431011</v>
+        <v>0.00981281587031472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.354197623828211</v>
+        <v>0.246732</v>
       </c>
       <c r="H6">
-        <v>0.354197623828211</v>
+        <v>0.7401960000000001</v>
       </c>
       <c r="I6">
-        <v>0.1274266268470076</v>
+        <v>0.04524703243545731</v>
       </c>
       <c r="J6">
-        <v>0.1274266268470076</v>
+        <v>0.05355620708000677</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N6">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O6">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P6">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q6">
-        <v>5.584969413416903</v>
+        <v>3.942606991554</v>
       </c>
       <c r="R6">
-        <v>5.584969413416903</v>
+        <v>23.655641949324</v>
       </c>
       <c r="S6">
-        <v>0.01817194053902868</v>
+        <v>0.005969144318038139</v>
       </c>
       <c r="T6">
-        <v>0.01817194053902868</v>
+        <v>0.004926869355445939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H7">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I7">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J7">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N7">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O7">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P7">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q7">
-        <v>68.779905188885</v>
+        <v>13.03863759976111</v>
       </c>
       <c r="R7">
-        <v>68.779905188885</v>
+        <v>117.34773839785</v>
       </c>
       <c r="S7">
-        <v>0.2237907237897973</v>
+        <v>0.01974062078982302</v>
       </c>
       <c r="T7">
-        <v>0.2237907237897973</v>
+        <v>0.02444055322961868</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H8">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I8">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J8">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N8">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O8">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P8">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q8">
-        <v>79.06526438251228</v>
+        <v>16.08753263600333</v>
       </c>
       <c r="R8">
-        <v>79.06526438251228</v>
+        <v>144.78779372403</v>
       </c>
       <c r="S8">
-        <v>0.2572564282285971</v>
+        <v>0.0243566767448972</v>
       </c>
       <c r="T8">
-        <v>0.2572564282285971</v>
+        <v>0.0301556197658773</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H9">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I9">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J9">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N9">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O9">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P9">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q9">
-        <v>33.61273317564658</v>
+        <v>8.68862397022</v>
       </c>
       <c r="R9">
-        <v>33.61273317564658</v>
+        <v>78.19761573197999</v>
       </c>
       <c r="S9">
-        <v>0.1093665055988895</v>
+        <v>0.01315465896411003</v>
       </c>
       <c r="T9">
-        <v>0.1093665055988895</v>
+        <v>0.01628657710681317</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.42542255911418</v>
+        <v>0.4505566666666667</v>
       </c>
       <c r="H10">
-        <v>2.42542255911418</v>
+        <v>1.35167</v>
       </c>
       <c r="I10">
-        <v>0.8725733731529924</v>
+        <v>0.08262548883273427</v>
       </c>
       <c r="J10">
-        <v>0.8725733731529924</v>
+        <v>0.09779885114730792</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N10">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O10">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P10">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q10">
-        <v>48.4751131107025</v>
+        <v>9.559579142884445</v>
       </c>
       <c r="R10">
-        <v>48.4751131107025</v>
+        <v>86.03621228595999</v>
       </c>
       <c r="S10">
-        <v>0.1577245653224529</v>
+        <v>0.01447329334266033</v>
       </c>
       <c r="T10">
-        <v>0.1577245653224529</v>
+        <v>0.01791915766557546</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4505566666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.35167</v>
+      </c>
+      <c r="I11">
+        <v>0.08262548883273427</v>
+      </c>
+      <c r="J11">
+        <v>0.09779885114730792</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.9793095</v>
+      </c>
+      <c r="N11">
+        <v>31.958619</v>
+      </c>
+      <c r="O11">
+        <v>0.1319234433010128</v>
+      </c>
+      <c r="P11">
+        <v>0.09199436674232302</v>
+      </c>
+      <c r="Q11">
+        <v>7.199584423955</v>
+      </c>
+      <c r="R11">
+        <v>43.19750654372999</v>
+      </c>
+      <c r="S11">
+        <v>0.01090023899124369</v>
+      </c>
+      <c r="T11">
+        <v>0.008996943379423304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.34427</v>
+      </c>
+      <c r="I12">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J12">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.93895166666666</v>
+      </c>
+      <c r="N12">
+        <v>86.81685499999999</v>
+      </c>
+      <c r="O12">
+        <v>0.2389168411431201</v>
+      </c>
+      <c r="P12">
+        <v>0.2499063428956389</v>
+      </c>
+      <c r="Q12">
+        <v>3.320937630094444</v>
+      </c>
+      <c r="R12">
+        <v>29.88843867085</v>
+      </c>
+      <c r="S12">
+        <v>0.005027931018157073</v>
+      </c>
+      <c r="T12">
+        <v>0.006225002597054624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.34427</v>
+      </c>
+      <c r="I13">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J13">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>35.705903</v>
+      </c>
+      <c r="N13">
+        <v>107.117709</v>
+      </c>
+      <c r="O13">
+        <v>0.2947840562154431</v>
+      </c>
+      <c r="P13">
+        <v>0.3083432925040795</v>
+      </c>
+      <c r="Q13">
+        <v>4.097490408603334</v>
+      </c>
+      <c r="R13">
+        <v>36.87741367743</v>
+      </c>
+      <c r="S13">
+        <v>0.006203639278052898</v>
+      </c>
+      <c r="T13">
+        <v>0.007680628568214564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.34427</v>
+      </c>
+      <c r="I14">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J14">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>19.284198</v>
+      </c>
+      <c r="N14">
+        <v>57.852594</v>
+      </c>
+      <c r="O14">
+        <v>0.1592082437265831</v>
+      </c>
+      <c r="P14">
+        <v>0.1665313745074753</v>
+      </c>
+      <c r="Q14">
+        <v>2.21299028182</v>
+      </c>
+      <c r="R14">
+        <v>19.91691253638</v>
+      </c>
+      <c r="S14">
+        <v>0.0033504882416375</v>
+      </c>
+      <c r="T14">
+        <v>0.004148186983925492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.34427</v>
+      </c>
+      <c r="I15">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J15">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.21726266666667</v>
+      </c>
+      <c r="N15">
+        <v>63.651788</v>
+      </c>
+      <c r="O15">
+        <v>0.1751674156138409</v>
+      </c>
+      <c r="P15">
+        <v>0.1832246233504832</v>
+      </c>
+      <c r="Q15">
+        <v>2.434822339417778</v>
+      </c>
+      <c r="R15">
+        <v>21.91340105476</v>
+      </c>
+      <c r="S15">
+        <v>0.003686344077384031</v>
+      </c>
+      <c r="T15">
+        <v>0.004564004830711391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1147566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.34427</v>
+      </c>
+      <c r="I16">
+        <v>0.02104469067186919</v>
+      </c>
+      <c r="J16">
+        <v>0.02490934213564236</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.9793095</v>
+      </c>
+      <c r="N16">
+        <v>31.958619</v>
+      </c>
+      <c r="O16">
+        <v>0.1319234433010128</v>
+      </c>
+      <c r="P16">
+        <v>0.09199436674232302</v>
+      </c>
+      <c r="Q16">
+        <v>1.833732293855</v>
+      </c>
+      <c r="R16">
+        <v>11.00239376313</v>
+      </c>
+      <c r="S16">
+        <v>0.002776288056637688</v>
+      </c>
+      <c r="T16">
+        <v>0.002291519155736282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J17">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>28.93895166666666</v>
+      </c>
+      <c r="N17">
+        <v>86.81685499999999</v>
+      </c>
+      <c r="O17">
+        <v>0.2389168411431201</v>
+      </c>
+      <c r="P17">
+        <v>0.2499063428956389</v>
+      </c>
+      <c r="Q17">
+        <v>60.85504621762778</v>
+      </c>
+      <c r="R17">
+        <v>547.69541595865</v>
+      </c>
+      <c r="S17">
+        <v>0.09213511621423957</v>
+      </c>
+      <c r="T17">
+        <v>0.1140710434654681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.42542255911418</v>
-      </c>
-      <c r="H11">
-        <v>2.42542255911418</v>
-      </c>
-      <c r="I11">
-        <v>0.8725733731529924</v>
-      </c>
-      <c r="J11">
-        <v>0.8725733731529924</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>15.7679471506722</v>
-      </c>
-      <c r="N11">
-        <v>15.7679471506722</v>
-      </c>
-      <c r="O11">
-        <v>0.1426070907522843</v>
-      </c>
-      <c r="P11">
-        <v>0.1426070907522843</v>
-      </c>
-      <c r="Q11">
-        <v>38.24393473016051</v>
-      </c>
-      <c r="R11">
-        <v>38.24393473016051</v>
-      </c>
-      <c r="S11">
-        <v>0.1244351502132557</v>
-      </c>
-      <c r="T11">
-        <v>0.1244351502132557</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J18">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>35.705903</v>
+      </c>
+      <c r="N18">
+        <v>107.117709</v>
+      </c>
+      <c r="O18">
+        <v>0.2947840562154431</v>
+      </c>
+      <c r="P18">
+        <v>0.3083432925040795</v>
+      </c>
+      <c r="Q18">
+        <v>75.08511028096335</v>
+      </c>
+      <c r="R18">
+        <v>675.76599252867</v>
+      </c>
+      <c r="S18">
+        <v>0.113679567951616</v>
+      </c>
+      <c r="T18">
+        <v>0.140744891522048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J19">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.284198</v>
+      </c>
+      <c r="N19">
+        <v>57.852594</v>
+      </c>
+      <c r="O19">
+        <v>0.1592082437265831</v>
+      </c>
+      <c r="P19">
+        <v>0.1665313745074753</v>
+      </c>
+      <c r="Q19">
+        <v>40.55229000958001</v>
+      </c>
+      <c r="R19">
+        <v>364.97061008622</v>
+      </c>
+      <c r="S19">
+        <v>0.06139655106701596</v>
+      </c>
+      <c r="T19">
+        <v>0.07601410768409063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H20">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J20">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.21726266666667</v>
+      </c>
+      <c r="N20">
+        <v>63.651788</v>
+      </c>
+      <c r="O20">
+        <v>0.1751674156138409</v>
+      </c>
+      <c r="P20">
+        <v>0.1832246233504832</v>
+      </c>
+      <c r="Q20">
+        <v>44.61728659227111</v>
+      </c>
+      <c r="R20">
+        <v>401.55557933044</v>
+      </c>
+      <c r="S20">
+        <v>0.06755099438495141</v>
+      </c>
+      <c r="T20">
+        <v>0.08363382750507103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>2.102876666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.308630000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.3856367586872924</v>
+      </c>
+      <c r="J21">
+        <v>0.4564551749416954</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.9793095</v>
+      </c>
+      <c r="N21">
+        <v>31.958619</v>
+      </c>
+      <c r="O21">
+        <v>0.1319234433010128</v>
+      </c>
+      <c r="P21">
+        <v>0.09199436674232302</v>
+      </c>
+      <c r="Q21">
+        <v>33.602517096995</v>
+      </c>
+      <c r="R21">
+        <v>201.61510258197</v>
+      </c>
+      <c r="S21">
+        <v>0.05087452906946937</v>
+      </c>
+      <c r="T21">
+        <v>0.04199130476501754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.5380765</v>
+      </c>
+      <c r="H22">
+        <v>5.076153</v>
+      </c>
+      <c r="I22">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J22">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>28.93895166666666</v>
+      </c>
+      <c r="N22">
+        <v>86.81685499999999</v>
+      </c>
+      <c r="O22">
+        <v>0.2389168411431201</v>
+      </c>
+      <c r="P22">
+        <v>0.2499063428956389</v>
+      </c>
+      <c r="Q22">
+        <v>73.44927315980249</v>
+      </c>
+      <c r="R22">
+        <v>440.6956389588149</v>
+      </c>
+      <c r="S22">
+        <v>0.1112028950603207</v>
+      </c>
+      <c r="T22">
+        <v>0.09178570775277142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.5380765</v>
+      </c>
+      <c r="H23">
+        <v>5.076153</v>
+      </c>
+      <c r="I23">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J23">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>35.705903</v>
+      </c>
+      <c r="N23">
+        <v>107.117709</v>
+      </c>
+      <c r="O23">
+        <v>0.2947840562154431</v>
+      </c>
+      <c r="P23">
+        <v>0.3083432925040795</v>
+      </c>
+      <c r="Q23">
+        <v>90.6243133155795</v>
+      </c>
+      <c r="R23">
+        <v>543.745879893477</v>
+      </c>
+      <c r="S23">
+        <v>0.1372060684878411</v>
+      </c>
+      <c r="T23">
+        <v>0.1132484554228601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.5380765</v>
+      </c>
+      <c r="H24">
+        <v>5.076153</v>
+      </c>
+      <c r="I24">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J24">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>19.284198</v>
+      </c>
+      <c r="N24">
+        <v>57.852594</v>
+      </c>
+      <c r="O24">
+        <v>0.1592082437265831</v>
+      </c>
+      <c r="P24">
+        <v>0.1665313745074753</v>
+      </c>
+      <c r="Q24">
+        <v>48.94476976514699</v>
+      </c>
+      <c r="R24">
+        <v>293.668618590882</v>
+      </c>
+      <c r="S24">
+        <v>0.07410284488593075</v>
+      </c>
+      <c r="T24">
+        <v>0.06116371395420553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.5380765</v>
+      </c>
+      <c r="H25">
+        <v>5.076153</v>
+      </c>
+      <c r="I25">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J25">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.21726266666667</v>
+      </c>
+      <c r="N25">
+        <v>63.651788</v>
+      </c>
+      <c r="O25">
+        <v>0.1751674156138409</v>
+      </c>
+      <c r="P25">
+        <v>0.1832246233504832</v>
+      </c>
+      <c r="Q25">
+        <v>53.851035768594</v>
+      </c>
+      <c r="R25">
+        <v>323.106214611564</v>
+      </c>
+      <c r="S25">
+        <v>0.08153097807293046</v>
+      </c>
+      <c r="T25">
+        <v>0.06729481747881057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.5380765</v>
+      </c>
+      <c r="H26">
+        <v>5.076153</v>
+      </c>
+      <c r="I26">
+        <v>0.465446029372647</v>
+      </c>
+      <c r="J26">
+        <v>0.3672804246953477</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.9793095</v>
+      </c>
+      <c r="N26">
+        <v>31.958619</v>
+      </c>
+      <c r="O26">
+        <v>0.1319234433010128</v>
+      </c>
+      <c r="P26">
+        <v>0.09199436674232302</v>
+      </c>
+      <c r="Q26">
+        <v>40.55670992817674</v>
+      </c>
+      <c r="R26">
+        <v>162.226839712707</v>
+      </c>
+      <c r="S26">
+        <v>0.06140324286562394</v>
+      </c>
+      <c r="T26">
+        <v>0.03378773008669996</v>
       </c>
     </row>
   </sheetData>
